--- a/2024/05-lacnov/lacnov-vysledky-2024.xlsx
+++ b/2024/05-lacnov/lacnov-vysledky-2024.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Předškoláci 1" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,10 +21,11 @@
     <sheet name="Starší žačky" sheetId="11" state="visible" r:id="rId12"/>
     <sheet name="Starší žáci" sheetId="12" state="visible" r:id="rId13"/>
     <sheet name="Junioři" sheetId="13" state="visible" r:id="rId14"/>
-    <sheet name="Ženy - Z2" sheetId="14" state="visible" r:id="rId15"/>
-    <sheet name="Muži - M1" sheetId="15" state="visible" r:id="rId16"/>
-    <sheet name="Muži - M2" sheetId="16" state="visible" r:id="rId17"/>
-    <sheet name="Muži - M3" sheetId="17" state="visible" r:id="rId18"/>
+    <sheet name="Juniorky" sheetId="14" state="visible" r:id="rId15"/>
+    <sheet name="Ženy - Z2" sheetId="15" state="visible" r:id="rId16"/>
+    <sheet name="Muži - M1" sheetId="16" state="visible" r:id="rId17"/>
+    <sheet name="Muži - M2" sheetId="17" state="visible" r:id="rId18"/>
+    <sheet name="Muži - M3" sheetId="18" state="visible" r:id="rId19"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="141">
   <si>
     <t xml:space="preserve">KATEGORIE</t>
   </si>
@@ -1909,15 +1910,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.88"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1926,7 +1927,7 @@
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="4"/>
@@ -1966,66 +1967,50 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="n">
-        <v>42</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="C4" s="10" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="13" t="n">
-        <v>0.0737037037037037</v>
-      </c>
-      <c r="H4" s="10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8" t="n">
-        <v>41</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="C5" s="10" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="13" t="n">
-        <v>0.0793981481481482</v>
-      </c>
-      <c r="H5" s="10" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8" t="n">
-        <v>40</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="C6" s="10" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="13" t="n">
-        <v>0.113657407407407</v>
-      </c>
-      <c r="H6" s="10" t="n">
-        <v>3</v>
-      </c>
-    </row>
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:B1"/>
@@ -2054,7 +2039,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.38"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2063,7 +2048,7 @@
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="4"/>
@@ -2105,10 +2090,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="n">
-        <v>441</v>
+        <v>42</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C4" s="10" t="n">
         <v>-1</v>
@@ -2117,7 +2102,7 @@
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
       <c r="G4" s="13" t="n">
-        <v>0.104351851851852</v>
+        <v>0.0737037037037037</v>
       </c>
       <c r="H4" s="10" t="n">
         <v>1</v>
@@ -2125,10 +2110,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="n">
-        <v>442</v>
+        <v>41</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C5" s="10" t="n">
         <v>-1</v>
@@ -2137,7 +2122,7 @@
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
       <c r="G5" s="13" t="n">
-        <v>0.106342592592593</v>
+        <v>0.0793981481481482</v>
       </c>
       <c r="H5" s="10" t="n">
         <v>2</v>
@@ -2145,20 +2130,20 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="n">
-        <v>440</v>
+        <v>40</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C6" s="10" t="n">
         <v>-1</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
-      <c r="F6" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="G6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="13" t="n">
+        <v>0.113657407407407</v>
+      </c>
       <c r="H6" s="10" t="n">
         <v>3</v>
       </c>
@@ -2183,13 +2168,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.5"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
@@ -2197,7 +2185,7 @@
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="4"/>
@@ -2239,10 +2227,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="n">
-        <v>491</v>
+        <v>441</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C4" s="10" t="n">
         <v>-1</v>
@@ -2251,7 +2239,7 @@
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
       <c r="G4" s="13" t="n">
-        <v>0.0877777777777778</v>
+        <v>0.104351851851852</v>
       </c>
       <c r="H4" s="10" t="n">
         <v>1</v>
@@ -2259,10 +2247,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="n">
-        <v>493</v>
+        <v>442</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C5" s="10" t="n">
         <v>-1</v>
@@ -2271,7 +2259,7 @@
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
       <c r="G5" s="13" t="n">
-        <v>0.102951388888889</v>
+        <v>0.106342592592593</v>
       </c>
       <c r="H5" s="10" t="n">
         <v>2</v>
@@ -2279,44 +2267,22 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="n">
-        <v>492</v>
+        <v>440</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C6" s="10" t="n">
         <v>-1</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="13" t="n">
-        <v>0.108668981481481</v>
-      </c>
+      <c r="F6" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="G6" s="9"/>
       <c r="H6" s="10" t="n">
         <v>3</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8" t="n">
-        <v>490</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="C7" s="10" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="G7" s="13" t="n">
-        <v>0.0685648148148148</v>
-      </c>
-      <c r="H7" s="10" t="n">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -2335,6 +2301,162 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="5"/>
+    </row>
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="8" t="n">
+        <v>491</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="C4" s="10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="13" t="n">
+        <v>0.0877777777777778</v>
+      </c>
+      <c r="H4" s="10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="8" t="n">
+        <v>493</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C5" s="10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="13" t="n">
+        <v>0.102951388888889</v>
+      </c>
+      <c r="H5" s="10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="8" t="n">
+        <v>492</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="C6" s="10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="13" t="n">
+        <v>0.108668981481481</v>
+      </c>
+      <c r="H6" s="10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="8" t="n">
+        <v>490</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C7" s="10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="G7" s="13" t="n">
+        <v>0.0685648148148148</v>
+      </c>
+      <c r="H7" s="10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -2794,8 +2916,8 @@
   </sheetPr>
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G5" activeCellId="0" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2892,10 +3014,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="n">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C6" s="10" t="n">
         <v>-1</v>
@@ -2904,7 +3026,7 @@
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
       <c r="G6" s="11" t="n">
-        <v>0.0025462962962963</v>
+        <v>0.00256944444444444</v>
       </c>
       <c r="H6" s="10" t="n">
         <v>3</v>
@@ -2912,10 +3034,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="n">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C7" s="10" t="n">
         <v>-1</v>
@@ -2924,7 +3046,7 @@
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
       <c r="G7" s="11" t="n">
-        <v>0.00256944444444444</v>
+        <v>0.0025462962962963</v>
       </c>
       <c r="H7" s="10" t="n">
         <v>4</v>
@@ -4065,8 +4187,8 @@
   </sheetPr>
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
